--- a/data/population_1870_1890.xlsx
+++ b/data/population_1870_1890.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuef-my.sharepoint.com/personal/antth_uef_fi/Documents/VHK/Viipurin väestö/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antth\PycharmProjects\vyborg_historical_town_atlas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Kaupunginosa</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Linnan rykmentti ja Invaliidikomanto</t>
   </si>
   <si>
-    <t>Kruun St. Anne</t>
-  </si>
-  <si>
     <t>Pikiruukki</t>
   </si>
   <si>
@@ -131,24 +128,12 @@
     <t>Muslimeja</t>
   </si>
   <si>
-    <t>Vanha kaupunki</t>
-  </si>
-  <si>
-    <t>Kruun St. Anna</t>
-  </si>
-  <si>
-    <t>Anina</t>
-  </si>
-  <si>
     <t>Papula</t>
   </si>
   <si>
     <t>Saunalahti</t>
   </si>
   <si>
-    <t>Wiipurin esikaupunki</t>
-  </si>
-  <si>
     <t>Suomi &amp; ruotsi</t>
   </si>
   <si>
@@ -164,36 +149,15 @@
     <t>Pakanoita</t>
   </si>
   <si>
-    <t>Entinen linnan</t>
-  </si>
-  <si>
-    <t>Kron St. Anne</t>
-  </si>
-  <si>
-    <t>Paulowski y. Pikiruukki</t>
-  </si>
-  <si>
-    <t>Hiekka ja Monrepos</t>
-  </si>
-  <si>
     <t>Likolampi</t>
   </si>
   <si>
-    <t>Sorvarinsaari</t>
-  </si>
-  <si>
     <t>Havi</t>
   </si>
   <si>
     <t>Talikkala</t>
   </si>
   <si>
-    <t>Kolikonmäki</t>
-  </si>
-  <si>
-    <t>Wiipurin pitäjä y. vaivaishuone</t>
-  </si>
-  <si>
     <t>Sotaväen kortteri</t>
   </si>
   <si>
@@ -237,6 +201,27 @@
   </si>
   <si>
     <t>Jiddish</t>
+  </si>
+  <si>
+    <t>Linnoitus</t>
+  </si>
+  <si>
+    <t>Sorvali</t>
+  </si>
+  <si>
+    <t>Kolikkoinmäki</t>
+  </si>
+  <si>
+    <t>Viipurin pitäjä y. vaivaishuone</t>
+  </si>
+  <si>
+    <t>Kaleva</t>
+  </si>
+  <si>
+    <t>Siikaniemi</t>
+  </si>
+  <si>
+    <t>Hiekka (pienempi)</t>
   </si>
 </sst>
 </file>
@@ -554,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,43 +590,43 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -719,7 +704,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -783,384 +768,570 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <f>SUM(B2:B5)</f>
+        <v>1499</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <f t="shared" ref="C6:W6" si="0">SUM(C2:C5)</f>
+        <v>812</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>379</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>277</v>
+        <f t="shared" si="0"/>
+        <v>2623</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>388</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>852</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="S7">
-        <v>734</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>225</v>
-      </c>
-      <c r="V7">
-        <v>32</v>
-      </c>
-      <c r="W7">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>852</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>172</v>
-      </c>
-      <c r="C8">
-        <v>84</v>
-      </c>
-      <c r="D8">
-        <v>143</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="S8">
-        <v>147</v>
+        <v>734</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="W8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="C9">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>143</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>263</v>
+      </c>
+      <c r="S9">
+        <v>147</v>
+      </c>
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>270</v>
-      </c>
-      <c r="S9">
-        <v>13</v>
+      <c r="V9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>108</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>429</v>
+        <v>270</v>
       </c>
       <c r="S10">
-        <v>37</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="S11">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>938</v>
+        <v>410</v>
       </c>
       <c r="C12">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>541</v>
+        <v>128</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="L12">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1365</v>
-      </c>
-      <c r="R12">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="S12">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="T12">
-        <v>27</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>634</v>
+        <f>SUM(B10:B12)</f>
+        <v>1028</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <f t="shared" ref="C13:W13" si="1">SUM(C10:C12)</f>
+        <v>113</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>799</v>
+        <f t="shared" si="1"/>
+        <v>1142</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>2356</v>
+        <v>938</v>
       </c>
       <c r="C14">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="D14">
-        <v>1073</v>
+        <v>541</v>
       </c>
       <c r="E14">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1365</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>507</v>
+      </c>
+      <c r="T14">
+        <v>27</v>
+      </c>
+      <c r="V14">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>21</v>
-      </c>
-      <c r="P14">
-        <v>53</v>
-      </c>
-      <c r="Q14">
-        <v>3172</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>1064</v>
-      </c>
-      <c r="T14">
-        <v>62</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>74</v>
-      </c>
       <c r="W14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15">
+        <v>634</v>
+      </c>
+      <c r="C15">
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>799</v>
+      </c>
+      <c r="S15">
+        <v>94</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2356</v>
+      </c>
+      <c r="C16">
+        <v>467</v>
+      </c>
+      <c r="D16">
+        <v>1073</v>
+      </c>
+      <c r="E16">
+        <v>143</v>
+      </c>
+      <c r="F16">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>45</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <v>53</v>
+      </c>
+      <c r="Q16">
+        <v>3172</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1064</v>
+      </c>
+      <c r="T16">
+        <v>62</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>74</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="Q15">
+      <c r="Q17">
         <v>76</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="S15">
+      <c r="S17">
         <v>13</v>
       </c>
-      <c r="V15">
+      <c r="V17">
         <v>1</v>
       </c>
     </row>
@@ -1174,7 +1345,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1207,13 +1378,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1222,39 +1393,39 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
       <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
       <c r="U1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1696</v>
@@ -1319,7 +1490,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -1395,7 +1566,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>204</v>
@@ -1433,7 +1604,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>1192</v>
@@ -1471,7 +1642,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2529</v>
@@ -1524,7 +1695,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>588</v>
@@ -1565,7 +1736,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>164</v>
@@ -1597,7 +1768,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>147</v>
@@ -1620,7 +1791,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>84</v>
@@ -1652,7 +1823,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>517</v>
@@ -1709,7 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1734,13 +1907,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1749,21 +1922,21 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1481</v>
@@ -1821,7 +1994,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>563</v>
@@ -1841,7 +2014,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2398</v>
@@ -1873,7 +2046,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>988</v>
@@ -1899,7 +2072,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>482</v>
@@ -1922,7 +2095,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>471</v>
@@ -1951,7 +2124,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1516</v>
@@ -1983,7 +2156,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>508</v>
@@ -1997,7 +2170,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>181</v>
@@ -2023,7 +2196,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>278</v>
@@ -2046,7 +2219,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>117</v>
@@ -2066,7 +2239,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>191</v>
@@ -2086,7 +2259,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>107</v>
@@ -2100,7 +2273,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>549</v>
@@ -2117,7 +2290,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>1023</v>
@@ -2143,7 +2316,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>623</v>
@@ -2172,7 +2345,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>121</v>
@@ -2189,7 +2362,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>37</v>
@@ -2206,7 +2379,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>519</v>
@@ -2217,7 +2390,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>63</v>
@@ -2265,27 +2438,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>492</v>
@@ -2302,7 +2475,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>157</v>
@@ -2319,7 +2492,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>2217</v>
@@ -2342,7 +2515,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>8783</v>
@@ -2365,7 +2538,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>3463</v>
@@ -2385,7 +2558,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>121</v>

--- a/data/population_1870_1890.xlsx
+++ b/data/population_1870_1890.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1870" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Kaupunginosa</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Saunalahti</t>
   </si>
   <si>
-    <t>Suomi &amp; ruotsi</t>
-  </si>
-  <si>
-    <t>Puola, liettua, lätti ja tsekki</t>
-  </si>
-  <si>
     <t>Tanska ja norja</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Venäläinen kasarmi</t>
   </si>
   <si>
-    <t>Puola, lätti ja liettua</t>
-  </si>
-  <si>
     <t>Muut kielet</t>
   </si>
   <si>
@@ -222,6 +213,12 @@
   </si>
   <si>
     <t>Hiekka (pienempi)</t>
+  </si>
+  <si>
+    <t>Puola ja Baltia</t>
+  </si>
+  <si>
+    <t>Suomi ja ruotsi</t>
   </si>
 </sst>
 </file>
@@ -539,26 +536,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
@@ -605,31 +603,34 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -648,17 +649,21 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
+        <f>SUM(F2, K2, O2)</f>
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>198</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>89</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -686,25 +691,29 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
+        <f t="shared" ref="P3:P17" si="0">SUM(F3, K3, O3)</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>605</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>105</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
       <c r="U3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -724,17 +733,21 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R4">
         <v>914</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>88</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -753,258 +766,282 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
         <v>906</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>106</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>1499</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:W6" si="0">SUM(C2:C5)</f>
+        <f t="shared" ref="C6:X6" si="1">SUM(C2:C5)</f>
         <v>812</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O2:O5)</f>
+        <v>1</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>379</v>
-      </c>
-      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>2623</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>316</v>
-      </c>
-      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>277</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>852</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G6">
+        <v>161</v>
+      </c>
+      <c r="R8">
+        <v>85</v>
+      </c>
+      <c r="T8">
+        <v>734</v>
+      </c>
+      <c r="U8">
+        <v>225</v>
+      </c>
+      <c r="W8">
+        <v>32</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>143</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>263</v>
+      </c>
+      <c r="T9">
+        <v>147</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>271</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>2623</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>388</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="R10">
+        <v>270</v>
+      </c>
+      <c r="T10">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>113</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>277</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>8</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>852</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>16</v>
-      </c>
-      <c r="Q8">
-        <v>85</v>
-      </c>
-      <c r="S8">
-        <v>734</v>
-      </c>
-      <c r="T8">
-        <v>225</v>
-      </c>
-      <c r="V8">
-        <v>32</v>
-      </c>
-      <c r="W8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
-        <v>172</v>
-      </c>
-      <c r="C9">
-        <v>84</v>
-      </c>
-      <c r="D9">
-        <v>143</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>263</v>
-      </c>
-      <c r="S9">
-        <v>147</v>
-      </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>271</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>270</v>
-      </c>
-      <c r="S10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>347</v>
@@ -1024,17 +1061,21 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R11">
         <v>429</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>37</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1056,17 +1097,21 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R12">
         <v>443</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>120</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1075,91 +1120,95 @@
         <v>1028</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:W13" si="1">SUM(C10:C12)</f>
+        <f t="shared" ref="C13:X13" si="2">SUM(C10:C12)</f>
         <v>113</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f>SUM(O10:O12)</f>
         <v>2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
+      <c r="R13">
+        <f t="shared" si="2"/>
         <v>1142</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
+      <c r="S13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
+      <c r="T13">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
+      <c r="U13">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="1"/>
+      <c r="V13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="1"/>
+      <c r="W13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
+      <c r="X13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1190,26 +1239,30 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R14">
         <v>1365</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>507</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>27</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1228,20 +1281,24 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="Q15">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
         <v>799</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>94</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="V15">
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="W15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1279,31 +1336,35 @@
         <v>21</v>
       </c>
       <c r="P16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="Q16">
         <v>53</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3172</v>
       </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
       <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
         <v>1064</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>62</v>
       </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
       <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
         <v>74</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1322,16 +1383,20 @@
       <c r="G17">
         <v>9</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>76</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>8</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>13</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1</v>
       </c>
     </row>
@@ -1345,12 +1410,14 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="15" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
@@ -1369,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1378,13 +1445,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1393,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -1420,12 +1487,12 @@
         <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1696</v>
@@ -1490,7 +1557,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -1695,7 +1762,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>588</v>
@@ -1880,13 +1947,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="15" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1907,13 +1976,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1925,10 +1994,10 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
@@ -1936,7 +2005,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1481</v>
@@ -2046,7 +2115,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>988</v>
@@ -2095,7 +2164,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>471</v>
@@ -2219,7 +2288,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>117</v>
@@ -2239,7 +2308,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>191</v>
@@ -2259,7 +2328,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>107</v>
@@ -2273,7 +2342,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>549</v>
@@ -2290,7 +2359,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1023</v>
@@ -2345,7 +2414,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>121</v>
@@ -2362,7 +2431,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>37</v>
@@ -2379,7 +2448,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>519</v>
@@ -2390,7 +2459,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>63</v>
@@ -2429,7 +2498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -2447,7 +2516,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>31</v>
@@ -2458,7 +2527,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>492</v>
@@ -2475,7 +2544,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>157</v>
@@ -2492,7 +2561,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>2217</v>
@@ -2515,7 +2584,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>8783</v>
@@ -2538,7 +2607,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>3463</v>
@@ -2558,7 +2627,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>121</v>

--- a/data/population_1870_1890.xlsx
+++ b/data/population_1870_1890.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1870" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Kaupunginosa</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Tanska ja norja</t>
   </si>
   <si>
-    <t>Venäjällä asuvain suomalaisten ja tatarilaisten heimoin kieliä</t>
-  </si>
-  <si>
     <t>Pakanoita</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Suomi ja ruotsi</t>
+  </si>
+  <si>
+    <t>Yhteensä</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="24" max="24" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
@@ -603,7 +603,7 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -629,8 +629,11 @@
       <c r="X1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -662,8 +665,12 @@
       <c r="U2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <f>SUM(B2:Q2)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -710,10 +717,14 @@
       <c r="V3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y17" si="1">SUM(B3:Q3)</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -746,8 +757,12 @@
       <c r="U4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -782,61 +797,65 @@
       <c r="U5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>1499</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:X6" si="1">SUM(C2:C5)</f>
+        <f t="shared" ref="C6:X6" si="2">SUM(C2:C5)</f>
         <v>812</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>379</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>316</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6">
@@ -848,39 +867,43 @@
         <v>20</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>2623</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>2623</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>388</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -915,8 +938,12 @@
       <c r="V7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -966,10 +993,14 @@
       <c r="X8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>172</v>
@@ -1011,8 +1042,12 @@
       <c r="W9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1038,10 +1073,14 @@
       <c r="T10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>347</v>
@@ -1074,8 +1113,12 @@
       <c r="U11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1110,8 +1153,12 @@
       <c r="U12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1120,51 +1167,51 @@
         <v>1028</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:X13" si="2">SUM(C10:C12)</f>
+        <f t="shared" ref="C13:X13" si="3">SUM(C10:C12)</f>
         <v>113</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
@@ -1176,39 +1223,43 @@
         <v>14</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1142</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1261,8 +1312,12 @@
       <c r="X14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1352,12 @@
       <c r="W15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1363,8 +1422,12 @@
       <c r="X16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1398,6 +1461,10 @@
       </c>
       <c r="W17">
         <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,14 +1485,17 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="15" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="17" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1445,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1457,42 +1527,54 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
       </c>
       <c r="B2">
         <v>1696</v>
@@ -1521,43 +1603,47 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>61</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>2710</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>12</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2136</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>197</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>21</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>20</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(B2:P2)</f>
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -1580,29 +1666,33 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>166</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>224</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>30</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y12" si="0">SUM(B3:P3)</f>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1621,17 +1711,21 @@
       <c r="F4">
         <v>35</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>401</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1653,23 +1747,27 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>354</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>6</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>59</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1691,23 +1789,27 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
         <v>1408</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>85</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>13</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1738,31 +1840,35 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>50</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>3121</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>725</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>39</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>588</v>
@@ -1785,23 +1891,27 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>614</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>205</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>31</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1817,23 +1927,27 @@
       <c r="F9">
         <v>15</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>270</v>
       </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>21</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1846,17 +1960,21 @@
       <c r="E10">
         <v>27</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>166</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>27</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1875,20 +1993,24 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>105</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>46</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>3</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1916,26 +2038,30 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>794</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>444</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>24</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>10</v>
       </c>
-      <c r="T12">
-        <v>1</v>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,10 +2082,10 @@
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -1994,18 +2120,27 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
       </c>
       <c r="B2">
         <v>1481</v>
@@ -2034,11 +2169,15 @@
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(B2:P2)</f>
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2057,11 +2196,15 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q22" si="0">SUM(B3:P3)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2077,11 +2220,15 @@
       <c r="E4">
         <v>42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2106,16 +2253,20 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>988</v>
@@ -2135,11 +2286,15 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2161,10 +2316,14 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>471</v>
@@ -2187,11 +2346,15 @@
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2219,11 +2382,15 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2236,8 +2403,12 @@
       <c r="D10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2259,11 +2430,15 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2282,13 +2457,17 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>117</v>
@@ -2305,10 +2484,14 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>191</v>
@@ -2325,10 +2508,14 @@
       <c r="F14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>107</v>
@@ -2339,10 +2526,14 @@
       <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>549</v>
@@ -2356,10 +2547,14 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1023</v>
@@ -2376,14 +2571,18 @@
       <c r="K17">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2408,13 +2607,17 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>121</v>
@@ -2428,10 +2631,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>37</v>
@@ -2442,13 +2649,17 @@
       <c r="D20">
         <v>38</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>519</v>
@@ -2456,10 +2667,14 @@
       <c r="D21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>63</v>
@@ -2476,11 +2691,15 @@
       <c r="G22">
         <v>112</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>171</v>
       </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>2099</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2735,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>31</v>
@@ -2527,7 +2746,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>492</v>
@@ -2544,7 +2763,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>157</v>
@@ -2561,7 +2780,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2217</v>
@@ -2584,7 +2803,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>8783</v>
@@ -2607,7 +2826,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>3463</v>
@@ -2627,7 +2846,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>121</v>
